--- a/public/uploads/template/TrainingPlan.xlsx
+++ b/public/uploads/template/TrainingPlan.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TRƯỜNG ĐH VĂN LANG</t>
   </si>
@@ -69,22 +71,13 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>TP.HCM, ngày ... tháng ... năm 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRƯỞNG KHOA </t>
-  </si>
-  <si>
-    <t>NGƯỜI LẬP BẢNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,11 +97,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <name val="Times New Roman"/>
@@ -117,12 +105,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -135,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,48 +140,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,13 +169,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -262,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,142 +465,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O4"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.140625" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
-    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="K7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/uploads/template/TrainingPlan.xlsx
+++ b/public/uploads/template/TrainingPlan.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLUfromHost\public\uploads\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TRƯỜNG ĐH VĂN LANG</t>
   </si>
@@ -61,9 +64,6 @@
     <t>LVTN</t>
   </si>
   <si>
-    <t>khoilop</t>
-  </si>
-  <si>
     <t>TCHK</t>
   </si>
   <si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>SỐ GIỜ</t>
+  </si>
+  <si>
+    <t>Khối</t>
   </si>
 </sst>
 </file>
@@ -174,6 +183,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -221,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,8 +503,10 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -510,8 +524,10 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -529,8 +545,10 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -565,46 +583,28 @@
         <v>13</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>